--- a/Data-Presse et médias/CorpusV2.xlsx
+++ b/Data-Presse et médias/CorpusV2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>URL</t>
   </si>
@@ -280,12 +280,165 @@
     <t xml:space="preserve">De l’illusion de contrôle à la manipulation des utilisateurs .                                                      L’éthique est-elle soluble dans la technologie ?
 </t>
   </si>
+  <si>
+    <t>Wijnand Ijsselsteinj, Yvonne de Kort, Cees Midden. Eindhoven university of technology</t>
+  </si>
+  <si>
+    <t>Titre de l'article</t>
+  </si>
+  <si>
+    <t>Information sur l'auteur</t>
+  </si>
+  <si>
+    <t>Persuasive technology for Human Well-Being : Setting the Scene</t>
+  </si>
+  <si>
+    <t>Les persuasives technologies ont un impact positifs sur la société.</t>
+  </si>
+  <si>
+    <t>Ces technologies permettent d'arrêter de fumer, de faire plus d'exercice ou encore d'avoir une attitude éco-responsable. =&gt; cela grâce à des application comme e-care ou tele-care cette science permet de modifier nos habitudes</t>
+  </si>
+  <si>
+    <t>Wijnand Ijsselsteinj is a Professor Cognition and Affect in Human-Technology Interaction at Eindhoven University of Technology</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/11755494_1</t>
+  </si>
+  <si>
+    <t>IEEE engineering in medicine and biology society</t>
+  </si>
+  <si>
+    <t>A new research challenge : persuasive technology to motivate healthy aging</t>
+  </si>
+  <si>
+    <t>Cette technologie à un impact positif sur le système de santé.</t>
+  </si>
+  <si>
+    <t>La technologie persuasive ne permet pas seulement de soigner mieux mais aussi de fournir en temps réel des informations aux patients ce qui permet de les soigner ou de changer leurs habitudes. Cette technologie permet aussi de promouvoir des stages de bien être.</t>
+  </si>
+  <si>
+    <t>IEEE est une organisation puissante publiant des articles sur le numérique</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/1331399/?reload=true</t>
+  </si>
+  <si>
+    <t>Magnus Bang ; Carin Torstensson; Cecilia Katzeff</t>
+  </si>
+  <si>
+    <t>The PowerHouse : A persuasive computer game designed to raise awareness of domestc energy consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasive technologies can be useful to modify behaviors related to energy usage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the PowerHouse is a computer game designed to influence behaviors associated with energy use and promote an energy-aware lifestyle among teenagers. This prototype game aims to influence a set of target activities in the home using several persuasive techniques. </t>
+  </si>
+  <si>
+    <t>Magnus Bang est un chercheur en science sociale, et informatique</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/11755494_18</t>
+  </si>
+  <si>
+    <t>Victoria Schwanda</t>
+  </si>
+  <si>
+    <t>Side effects and "gateway" tools : advocating a broader look at evaluating persuasive systems</t>
+  </si>
+  <si>
+    <t>Les technologies persuasives peuvent avoir des effets secondaires néfastes.</t>
+  </si>
+  <si>
+    <t>Exemple d'une expérience ou des personnes utilisent Wii-Fit. Bien que de nombreuses personnes ayant fait l'étude ont modifiées leurs habitudes et font plus de sports. D'autres utilisateurs ont quand a eux eu des réactions émotionelles fortes.</t>
+  </si>
+  <si>
+    <t>Victoria Schwanda is a PhD professor in computer science and information</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=1978991</t>
+  </si>
+  <si>
+    <t>Maurits Kaptein ; Panos Markopoulos</t>
+  </si>
+  <si>
+    <t>Personalizing persuasive technologies: Explicit and implicit personalization using persuasion profiles</t>
+  </si>
+  <si>
+    <t>Les technologies persuasives sont efficaces afin de modifier les habitudes des utilisateurs ou de les guider ou il le faut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ette technologie est efficace car elle s'adapte à son utilisateur : elle est personnalisée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurits Kaptein is a social scientist and researcher interested in persuasion </t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S1071581915000075</t>
+  </si>
+  <si>
+    <t>Nick Cawthon</t>
+  </si>
+  <si>
+    <t>Negativity in Automated Performance Appraisals
+due to Online Behavior Trends</t>
+  </si>
+  <si>
+    <t>Les technologies persuasives changent nos comportement, nous pouvons ainsi avoir un comportement négatif sur internet</t>
+  </si>
+  <si>
+    <t>Ces technologies engendre un manque de sentiments et de reculs sur notre comportement lorsqu'on les utilisent, nous changeons ainsi nos comportement souvent pour le pire</t>
+  </si>
+  <si>
+    <t>Nick Cawthon chercheur en science social</t>
+  </si>
+  <si>
+    <t>http://www.gaugedesign.com/wp-content/uploads/2014/04/ncawthon_onlineNegativity.pdf</t>
+  </si>
+  <si>
+    <t>Ben Kirman</t>
+  </si>
+  <si>
+    <t>Thereʼs a Monster in my Kitchen: 
+Using Aversive Feedback to Motivate 
+Behaviour Change</t>
+  </si>
+  <si>
+    <t>les technologies persuasives ne sont pas efficaces pour changer le comportement des utilisateurs afin de changer les habitudes en matière d'écologie, de sport ect..</t>
+  </si>
+  <si>
+    <t>les technologies persuasives s'appuie trop sur le renforcement positif et ne se servent pas de la punition ou du renforcement négatif. C'est-à-dire que votre smartphone ne vous dira jamais que ce que vous faites est mal =&gt; alors les gens ne changent pas leurs habitudes</t>
+  </si>
+  <si>
+    <t>Practical, appropriate, empirically-validated guidelines for designing educational games</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/221514413_There%27s_a_monster_in_my_kitchen_using_aversive_feedback_to_motivate_behaviour_change</t>
+  </si>
+  <si>
+    <t>B.J Fogg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuasive Technology : Using computers to change what we think and do </t>
+  </si>
+  <si>
+    <t>L'auteur expose les raisons scientifiques de l'efficacité des persuasives technologies</t>
+  </si>
+  <si>
+    <t>Dans son article, l’auteur évoque plusieurs principes primordiaux afin de rendre une technologie persuasive : il y a tout d’abord le principe d’attractivité selon lequel une technologie qui est visuellement attractive pour l’utilisateur sera plus persuasive. Psychologiquement cela s’explique dans le fait que l’Homme tend à croire que si quelque chose est physiquement attractif alors elle possède aussi d’autres qualités admirables comme l’intelligence. Il y a ensuite le principe de similarité qui explique que l’Homme est plus persuadé par une technologie qui lui ressemble. Cela est du au fait que la perception par l’être humain d’une affiliation partagée rend l’ordinateur plus intelligent et fiable aux yeux de l’Homme. Enfin, en flattant l’utilisateur à travers des mots, des images et des symboles, une technologie peut devenir plus persuasive.</t>
+  </si>
+  <si>
+    <t>Informaticien à l'université de Stanford</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/09f1/a254c78ba0fefb01a75be971340d29d2c036.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,9 +523,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Corps)"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -423,12 +589,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,9 +627,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,13 +639,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -581,6 +781,26 @@
         <sz val="13"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -673,18 +893,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="A1:J10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Colonne1" dataDxfId="11"/>
-    <tableColumn id="2" name="Colonne2" dataDxfId="10"/>
-    <tableColumn id="3" name="Colonne3" dataDxfId="9"/>
-    <tableColumn id="4" name="Colonne4" dataDxfId="8"/>
-    <tableColumn id="5" name="Colonne5" headerRowDxfId="17" dataDxfId="7"/>
-    <tableColumn id="6" name="Colonne6" headerRowDxfId="16" dataDxfId="6"/>
-    <tableColumn id="7" name="Colonne7" headerRowDxfId="15" dataDxfId="5"/>
-    <tableColumn id="8" name="Colonne8" headerRowDxfId="14" dataDxfId="4"/>
-    <tableColumn id="9" name="Colonne9" headerRowDxfId="13" dataDxfId="3"/>
-    <tableColumn id="10" name="Colonne10" headerRowDxfId="12" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="A1:L18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Colonne1" dataDxfId="13"/>
+    <tableColumn id="2" name="Colonne2" dataDxfId="12"/>
+    <tableColumn id="3" name="Colonne3" dataDxfId="11"/>
+    <tableColumn id="4" name="Colonne4" dataDxfId="10"/>
+    <tableColumn id="5" name="Colonne5" headerRowDxfId="21" dataDxfId="9"/>
+    <tableColumn id="6" name="Colonne6" headerRowDxfId="20" dataDxfId="8"/>
+    <tableColumn id="7" name="Colonne7" headerRowDxfId="19" dataDxfId="7"/>
+    <tableColumn id="8" name="Colonne8" headerRowDxfId="18" dataDxfId="6"/>
+    <tableColumn id="9" name="Colonne9" headerRowDxfId="17" dataDxfId="5"/>
+    <tableColumn id="10" name="Colonne10" headerRowDxfId="16" dataDxfId="4"/>
+    <tableColumn id="11" name="Colonne11" headerRowDxfId="15" dataDxfId="3"/>
+    <tableColumn id="12" name="Colonne12" headerRowDxfId="14" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -953,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C8" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,13 +1193,13 @@
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="45.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
     <col min="13" max="13" width="33.83203125" customWidth="1"/>
     <col min="14" max="14" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1008,8 +1230,14 @@
       <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1268,10 @@
       <c r="J2" s="7">
         <v>42675</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1072,8 +1302,10 @@
       <c r="J3" s="7">
         <v>42826</v>
       </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1104,8 +1336,10 @@
       <c r="J4" s="7">
         <v>42856</v>
       </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1134,8 +1368,10 @@
       <c r="J5" s="7">
         <v>42826</v>
       </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -1166,8 +1402,10 @@
       <c r="J6" s="2">
         <v>2016</v>
       </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1196,8 +1434,10 @@
       <c r="J7" s="10">
         <v>42736</v>
       </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1226,15 +1466,17 @@
       <c r="J8" s="10">
         <v>42826</v>
       </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="2"/>
@@ -1250,25 +1492,27 @@
       <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="10">
         <v>42522</v>
       </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1278,15 +1522,239 @@
       <c r="H10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="10">
         <v>42614</v>
       </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" ht="220" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2006</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="220" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="18">
+        <v>38233</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="10">
+        <v>40664</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="10">
+        <v>42125</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="185" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="10">
+        <v>40179</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="353" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -1301,10 +1769,18 @@
     <hyperlink ref="A8" r:id="rId10"/>
     <hyperlink ref="A9" r:id="rId11"/>
     <hyperlink ref="A10" r:id="rId12"/>
+    <hyperlink ref="B11" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+    <hyperlink ref="B13" r:id="rId15"/>
+    <hyperlink ref="B14" r:id="rId16"/>
+    <hyperlink ref="B15" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
+    <hyperlink ref="B17" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>